--- a/xlsx/check/Техническая_проверка_оборудования.xlsx
+++ b/xlsx/check/Техническая_проверка_оборудования.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="244">
   <si>
     <t>Цеховой номер</t>
   </si>
@@ -618,6 +618,135 @@
   </si>
   <si>
     <t>140204</t>
+  </si>
+  <si>
+    <t>060602</t>
+  </si>
+  <si>
+    <t>060603</t>
+  </si>
+  <si>
+    <t>060604</t>
+  </si>
+  <si>
+    <t>060616</t>
+  </si>
+  <si>
+    <t>060601</t>
+  </si>
+  <si>
+    <t>060501</t>
+  </si>
+  <si>
+    <t>060502</t>
+  </si>
+  <si>
+    <t>060503</t>
+  </si>
+  <si>
+    <t>070501</t>
+  </si>
+  <si>
+    <t>070502</t>
+  </si>
+  <si>
+    <t>070504</t>
+  </si>
+  <si>
+    <t>070505</t>
+  </si>
+  <si>
+    <t>070601</t>
+  </si>
+  <si>
+    <t>070602</t>
+  </si>
+  <si>
+    <t>080702</t>
+  </si>
+  <si>
+    <t>080703</t>
+  </si>
+  <si>
+    <t>080704</t>
+  </si>
+  <si>
+    <t>080705</t>
+  </si>
+  <si>
+    <t>080701</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>080602</t>
+  </si>
+  <si>
+    <t>080603</t>
+  </si>
+  <si>
+    <t>080604</t>
+  </si>
+  <si>
+    <t>090801</t>
+  </si>
+  <si>
+    <t>090803</t>
+  </si>
+  <si>
+    <t>090804</t>
+  </si>
+  <si>
+    <t>090805</t>
+  </si>
+  <si>
+    <t>090701</t>
+  </si>
+  <si>
+    <t>090702</t>
+  </si>
+  <si>
+    <t>090703</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>110802</t>
+  </si>
+  <si>
+    <t>110803</t>
+  </si>
+  <si>
+    <t>110804</t>
+  </si>
+  <si>
+    <t>110805</t>
+  </si>
+  <si>
+    <t>110801</t>
+  </si>
+  <si>
+    <t>110701</t>
+  </si>
+  <si>
+    <t>110703</t>
+  </si>
+  <si>
+    <t>110704</t>
   </si>
 </sst>
 </file>
@@ -960,8 +1089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,165 +3868,451 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="2"/>
+      <c r="A235" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="2"/>
+      <c r="B236" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="2"/>
+      <c r="B237" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
+      <c r="B238" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
+      <c r="B239" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="2"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="2"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="2"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="2"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="2"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
@@ -8206,7 +8622,7 @@
   <dimension ref="A1:E1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
